--- a/GEO/fastGROseq_PXGL.xlsx
+++ b/GEO/fastGROseq_PXGL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Charbel\Work_post_doc\naive_paper\GEO\GEO_GC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gael\Desktop\charbel_paper_github_v1\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BF71D1-12E9-4587-8927-CC5FFCF6AC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DBA546-8EE4-4DED-974D-E830C223ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Checklist" sheetId="12" r:id="rId1"/>
@@ -628,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q33" authorId="0" shapeId="0" xr:uid="{BD6E6772-95A3-46A2-BD6F-DF0D6C3B1C93}">
+    <comment ref="Q33" authorId="0" shapeId="0" xr:uid="{B6D70038-EB80-45B4-BA48-65EE6492F7E2}">
       <text>
         <r>
           <rPr>
@@ -644,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R33" authorId="0" shapeId="0" xr:uid="{0F60EE06-13E2-4E08-A4F1-5C272396AC26}">
+    <comment ref="R33" authorId="0" shapeId="0" xr:uid="{9C903699-067E-490F-BAF5-30652EB53AB1}">
       <text>
         <r>
           <rPr>
@@ -5606,7 +5606,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="639">
   <si>
     <t>SAMPLES</t>
   </si>
@@ -8147,6 +8147,48 @@
   </si>
   <si>
     <t>XIST long non-coding RNA is responsible for X chromosome inactivation (XCI) in placental mammals, yet it accumulates on both X chromosomes in human female pre-implantation embryos without triggering X chromosome silencing. Here we used naïve hESCs to assess the function of XIST in shaping the X chromosome chromatin and transcriptional landscape during pre-implantation developmental stages. We show that XIST triggers the deposition of polycomb-mediated repressive histone modifications and attenuates transcription of most X-linked genes in a SPEN-dependent manner. Altogether, our study demonstrates that XIST is functional prior to XCI, confirms the existence of a transient process of X chromosome dosage compensation, and reveals that X chromosome inactivation and dampening rely on the same set of factors.</t>
+  </si>
+  <si>
+    <t>md5sum_r1</t>
+  </si>
+  <si>
+    <t>md5sum_r2</t>
+  </si>
+  <si>
+    <t>92c91de97641ca7ae35aff6322a935e8</t>
+  </si>
+  <si>
+    <t>757c11a53ea24a74ed5a09d26c6a8ea5</t>
+  </si>
+  <si>
+    <t>ba39fa79794b83cc2ea3822a5324eece</t>
+  </si>
+  <si>
+    <t>93ae12b866dca8d86b40131f821800d5</t>
+  </si>
+  <si>
+    <t>ced0874615a90c22cc22e65c59a9dba2</t>
+  </si>
+  <si>
+    <t>b4834ac1dbfcab1a5d95fa628b3d3c1a</t>
+  </si>
+  <si>
+    <t>5d4874aca029aa6dbe83741887aa1f87</t>
+  </si>
+  <si>
+    <t>98f40593479681c606fe4dc9dde37bf6</t>
+  </si>
+  <si>
+    <t>62e43441d3aa176fcdfb934ffa3aeb00</t>
+  </si>
+  <si>
+    <t>90948ecbe121b536925abfbbd44d8c40</t>
+  </si>
+  <si>
+    <t>023a75160fa4cc0e1f03e302207d299d</t>
+  </si>
+  <si>
+    <t>6423a90feca8b2445e97a80b517bc2d5</t>
   </si>
 </sst>
 </file>
@@ -8706,7 +8748,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -8994,6 +9036,18 @@
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -9012,45 +9066,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="11" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+    <cellStyle name="40 % - Accent1" xfId="3" builtinId="31"/>
     <cellStyle name="Accent5" xfId="18" builtinId="45"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Normal 3" xfId="27" xr:uid="{F4D64B01-3AA2-4CE5-A7EE-64332280C940}"/>
@@ -13336,41 +13381,41 @@
       <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="162.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="7"/>
+    <col min="1" max="1" width="162.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="74.6640625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="99"/>
-    </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="B1" s="103"/>
+    </row>
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="107"/>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="B3" s="102"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="99"/>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
-    </row>
-    <row r="6" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+    </row>
+    <row r="6" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -13378,7 +13423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>280</v>
       </c>
@@ -13386,7 +13431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>279</v>
       </c>
@@ -13394,7 +13439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>278</v>
       </c>
@@ -13404,7 +13449,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>277</v>
       </c>
@@ -13412,13 +13457,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="15" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="15" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>276</v>
       </c>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>275</v>
       </c>
@@ -13426,7 +13471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>274</v>
       </c>
@@ -13434,7 +13479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>282</v>
       </c>
@@ -13442,7 +13487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>281</v>
       </c>
@@ -13454,7 +13499,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:8" s="20" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="20" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>574</v>
       </c>
@@ -13466,80 +13511,80 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
+    <row r="17" spans="1:6" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="100" t="s">
+    <row r="18" spans="1:6" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="104" t="s">
         <v>272</v>
       </c>
-      <c r="B18" s="101"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="8"/>
       <c r="D18" s="13"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+    <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="106" t="s">
         <v>577</v>
       </c>
-      <c r="B19" s="102"/>
-    </row>
-    <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="105" t="s">
+      <c r="B19" s="106"/>
+    </row>
+    <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="B20" s="105"/>
-    </row>
-    <row r="21" spans="1:6" ht="315" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="105" t="s">
+      <c r="B20" s="100"/>
+    </row>
+    <row r="21" spans="1:6" ht="315" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="B21" s="105"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
+      <c r="B21" s="100"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="99"/>
+      <c r="B22" s="99"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="99"/>
+      <c r="B24" s="99"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="99"/>
+      <c r="B25" s="99"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="99"/>
+      <c r="B26" s="99"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="99"/>
+      <c r="B27" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" location="categories" xr:uid="{D6250736-B96D-4C3E-A39D-F5873CF8B173}"/>
@@ -13567,42 +13612,42 @@
   </sheetPr>
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34:R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="21" customWidth="1"/>
-    <col min="4" max="7" width="17.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="21" customWidth="1"/>
+    <col min="4" max="7" width="17.6640625" style="21" customWidth="1"/>
     <col min="8" max="8" width="14" style="21" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="23.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="23.88671875" style="21" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="20" style="21" customWidth="1"/>
-    <col min="19" max="16384" width="83.7109375" style="21"/>
+    <col min="19" max="16384" width="83.6640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
         <v>380</v>
       </c>
@@ -13611,21 +13656,21 @@
       <c r="D4" s="82"/>
       <c r="E4" s="82"/>
     </row>
-    <row r="5" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
     </row>
-    <row r="6" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -13643,7 +13688,7 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>23</v>
       </c>
@@ -13663,7 +13708,7 @@
       <c r="O8" s="66"/>
       <c r="P8" s="66"/>
     </row>
-    <row r="9" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>33</v>
       </c>
@@ -13683,7 +13728,7 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>31</v>
       </c>
@@ -13702,7 +13747,7 @@
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>361</v>
       </c>
@@ -13710,7 +13755,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>362</v>
       </c>
@@ -13718,7 +13763,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>363</v>
       </c>
@@ -13726,7 +13771,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>240</v>
       </c>
@@ -13734,7 +13779,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>240</v>
       </c>
@@ -13742,46 +13787,46 @@
         <v>604</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>240</v>
       </c>
       <c r="D16" s="48"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>240</v>
       </c>
       <c r="D17" s="48"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>367</v>
       </c>
       <c r="D18" s="48"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="68"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="68"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="68"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="68"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="68"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="68"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="68"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="69"/>
       <c r="B27" s="69"/>
       <c r="C27" s="69"/>
@@ -13799,7 +13844,7 @@
       <c r="O27" s="69"/>
       <c r="P27" s="69"/>
     </row>
-    <row r="28" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>0</v>
       </c>
@@ -13819,7 +13864,7 @@
       <c r="O28" s="65"/>
       <c r="P28" s="66"/>
     </row>
-    <row r="29" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>30</v>
       </c>
@@ -13839,7 +13884,7 @@
       <c r="O29" s="24"/>
       <c r="P29" s="25"/>
     </row>
-    <row r="30" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>256</v>
       </c>
@@ -13859,7 +13904,7 @@
       <c r="O30" s="24"/>
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="1:16" s="91" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="91" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="89" t="s">
         <v>257</v>
       </c>
@@ -13879,7 +13924,7 @@
       <c r="O31" s="89"/>
       <c r="P31" s="90"/>
     </row>
-    <row r="32" spans="1:16" s="91" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="91" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="89" t="s">
         <v>258</v>
       </c>
@@ -13899,7 +13944,7 @@
       <c r="O32" s="89"/>
       <c r="P32" s="90"/>
     </row>
-    <row r="33" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="79" t="s">
         <v>364</v>
       </c>
@@ -13949,13 +13994,13 @@
         <v>3</v>
       </c>
       <c r="Q33" s="53" t="s">
-        <v>3</v>
+        <v>625</v>
       </c>
       <c r="R33" s="53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>583</v>
       </c>
@@ -13993,8 +14038,14 @@
       <c r="P34" s="28" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q34" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="R34" s="21" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>584</v>
       </c>
@@ -14032,8 +14083,14 @@
       <c r="P35" s="28" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q35" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="R35" s="21" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>585</v>
       </c>
@@ -14071,8 +14128,14 @@
       <c r="P36" s="28" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q36" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="R36" s="109" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>586</v>
       </c>
@@ -14110,8 +14173,14 @@
       <c r="P37" s="28" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q37" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>587</v>
       </c>
@@ -14149,8 +14218,14 @@
       <c r="P38" s="28" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q38" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="R38" s="21" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>588</v>
       </c>
@@ -14188,8 +14263,14 @@
       <c r="P39" s="28" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q39" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="R39" s="21" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40" s="28"/>
       <c r="C40" s="29"/>
@@ -14206,7 +14287,7 @@
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
     </row>
-    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41" s="28"/>
       <c r="C41" s="29"/>
@@ -14223,7 +14304,7 @@
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
     </row>
-    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42" s="28"/>
       <c r="C42" s="29"/>
@@ -14240,7 +14321,7 @@
       <c r="O42" s="28"/>
       <c r="P42" s="28"/>
     </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
@@ -14257,7 +14338,7 @@
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
     </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44" s="28"/>
       <c r="C44" s="29"/>
@@ -14274,7 +14355,7 @@
       <c r="O44" s="28"/>
       <c r="P44" s="28"/>
     </row>
-    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45" s="28"/>
       <c r="C45" s="29"/>
@@ -14291,7 +14372,7 @@
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
     </row>
-    <row r="46" spans="1:18" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>29</v>
       </c>
@@ -14311,7 +14392,7 @@
       <c r="O46" s="65"/>
       <c r="P46" s="66"/>
     </row>
-    <row r="47" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
         <v>359</v>
       </c>
@@ -14331,7 +14412,7 @@
       <c r="O47" s="24"/>
       <c r="P47" s="25"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
         <v>373</v>
       </c>
@@ -14351,7 +14432,7 @@
       <c r="O48" s="30"/>
       <c r="P48" s="30"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
         <v>374</v>
       </c>
@@ -14371,7 +14452,7 @@
       <c r="O49" s="30"/>
       <c r="P49" s="30"/>
     </row>
-    <row r="50" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>375</v>
       </c>
@@ -14393,7 +14474,7 @@
       <c r="O50" s="30"/>
       <c r="P50" s="30"/>
     </row>
-    <row r="51" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>376</v>
       </c>
@@ -14415,7 +14496,7 @@
       <c r="O51" s="30"/>
       <c r="P51" s="30"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
         <v>381</v>
       </c>
@@ -14437,7 +14518,7 @@
       <c r="O52" s="30"/>
       <c r="P52" s="30"/>
     </row>
-    <row r="53" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -14455,7 +14536,7 @@
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
         <v>377</v>
       </c>
@@ -14477,7 +14558,7 @@
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>377</v>
       </c>
@@ -14499,7 +14580,7 @@
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
         <v>377</v>
       </c>
@@ -14521,7 +14602,7 @@
       <c r="O56" s="30"/>
       <c r="P56" s="30"/>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>377</v>
       </c>
@@ -14543,7 +14624,7 @@
       <c r="O57" s="30"/>
       <c r="P57" s="30"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
         <v>377</v>
       </c>
@@ -14563,7 +14644,7 @@
       <c r="O58" s="30"/>
       <c r="P58" s="30"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
         <v>378</v>
       </c>
@@ -14585,7 +14666,7 @@
       <c r="O59" s="28"/>
       <c r="P59" s="28"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="27" t="s">
         <v>379</v>
       </c>
@@ -14607,7 +14688,7 @@
       <c r="O60" s="30"/>
       <c r="P60" s="30"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="27" t="s">
         <v>379</v>
       </c>
@@ -14627,7 +14708,7 @@
       <c r="O61" s="30"/>
       <c r="P61" s="30"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="73"/>
       <c r="B62" s="73"/>
       <c r="C62" s="73"/>
@@ -14645,7 +14726,7 @@
       <c r="O62" s="73"/>
       <c r="P62" s="73"/>
     </row>
-    <row r="63" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
         <v>5</v>
       </c>
@@ -14665,7 +14746,7 @@
       <c r="O63" s="65"/>
       <c r="P63" s="66"/>
     </row>
-    <row r="64" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
         <v>34</v>
       </c>
@@ -14685,7 +14766,7 @@
       <c r="O64" s="24"/>
       <c r="P64" s="25"/>
     </row>
-    <row r="65" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="24" t="s">
         <v>259</v>
       </c>
@@ -14705,7 +14786,7 @@
       <c r="O65" s="24"/>
       <c r="P65" s="25"/>
     </row>
-    <row r="66" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
         <v>35</v>
       </c>
@@ -14725,7 +14806,7 @@
       <c r="O66" s="24"/>
       <c r="P66" s="25"/>
     </row>
-    <row r="67" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="92" t="s">
         <v>6</v>
       </c>
@@ -14749,7 +14830,7 @@
       <c r="Q67" s="93"/>
       <c r="R67" s="93"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="28" t="s">
         <v>605</v>
       </c>
@@ -14757,7 +14838,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="28" t="s">
         <v>606</v>
       </c>
@@ -14765,7 +14846,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="28" t="s">
         <v>607</v>
       </c>
@@ -14773,7 +14854,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
         <v>608</v>
       </c>
@@ -14781,7 +14862,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
         <v>609</v>
       </c>
@@ -14789,7 +14870,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="28" t="s">
         <v>610</v>
       </c>
@@ -14887,39 +14968,39 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="21" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="21"/>
-    <col min="6" max="6" width="28.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="2" width="30.6640625" style="21" customWidth="1"/>
+    <col min="3" max="5" width="9.109375" style="21"/>
+    <col min="6" max="6" width="28.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
     </row>
-    <row r="7" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>248</v>
       </c>
@@ -14927,7 +15008,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>249</v>
       </c>
@@ -14957,31 +15038,31 @@
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42" style="21" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="21" customWidth="1"/>
     <col min="9" max="9" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="25" style="21" customWidth="1"/>
-    <col min="19" max="16384" width="83.7109375" style="21"/>
+    <col min="19" max="16384" width="83.6640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>23</v>
       </c>
@@ -15001,7 +15082,7 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
     </row>
-    <row r="4" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
@@ -15021,7 +15102,7 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>31</v>
       </c>
@@ -15040,7 +15121,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>361</v>
       </c>
@@ -15048,7 +15129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="246" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>362</v>
       </c>
@@ -15056,7 +15137,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>363</v>
       </c>
@@ -15064,7 +15145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>24</v>
       </c>
@@ -15072,7 +15153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>24</v>
       </c>
@@ -15080,7 +15161,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>240</v>
       </c>
@@ -15088,7 +15169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>240</v>
       </c>
@@ -15097,7 +15178,7 @@
       </c>
       <c r="D12" s="48"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>252</v>
       </c>
@@ -15105,39 +15186,39 @@
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="77"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="77"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="77"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="77"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="77"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="51"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="51"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="51"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="52"/>
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
@@ -15154,7 +15235,7 @@
       <c r="O23" s="52"/>
       <c r="P23" s="52"/>
     </row>
-    <row r="24" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>0</v>
       </c>
@@ -15173,7 +15254,7 @@
       <c r="O24" s="44"/>
       <c r="P24" s="45"/>
     </row>
-    <row r="25" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>30</v>
       </c>
@@ -15192,7 +15273,7 @@
       <c r="O25" s="24"/>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>256</v>
       </c>
@@ -15212,7 +15293,7 @@
       <c r="O26" s="24"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="27" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>257</v>
       </c>
@@ -15232,7 +15313,7 @@
       <c r="O27" s="24"/>
       <c r="P27" s="25"/>
     </row>
-    <row r="28" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>258</v>
       </c>
@@ -15252,7 +15333,7 @@
       <c r="O28" s="24"/>
       <c r="P28" s="25"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="79" t="s">
         <v>364</v>
       </c>
@@ -15308,7 +15389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>38</v>
       </c>
@@ -15355,7 +15436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>39</v>
       </c>
@@ -15402,7 +15483,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>40</v>
       </c>
@@ -15449,7 +15530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>41</v>
       </c>
@@ -15496,7 +15577,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>42</v>
       </c>
@@ -15543,7 +15624,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>43</v>
       </c>
@@ -15590,7 +15671,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>73</v>
       </c>
@@ -15637,7 +15718,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>77</v>
       </c>
@@ -15684,7 +15765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="59"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -15702,7 +15783,7 @@
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -15719,7 +15800,7 @@
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
     </row>
-    <row r="40" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
         <v>29</v>
       </c>
@@ -15739,7 +15820,7 @@
       <c r="O40" s="44"/>
       <c r="P40" s="45"/>
     </row>
-    <row r="41" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>32</v>
       </c>
@@ -15759,7 +15840,7 @@
       <c r="O41" s="24"/>
       <c r="P41" s="25"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>253</v>
       </c>
@@ -15781,7 +15862,7 @@
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>254</v>
       </c>
@@ -15803,7 +15884,7 @@
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>254</v>
       </c>
@@ -15825,7 +15906,7 @@
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>375</v>
       </c>
@@ -15847,7 +15928,7 @@
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>376</v>
       </c>
@@ -15869,7 +15950,7 @@
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>381</v>
       </c>
@@ -15891,7 +15972,7 @@
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="47"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
@@ -15908,7 +15989,7 @@
       <c r="O48" s="29"/>
       <c r="P48" s="29"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>377</v>
       </c>
@@ -15930,7 +16011,7 @@
       <c r="O49" s="29"/>
       <c r="P49" s="29"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>377</v>
       </c>
@@ -15952,7 +16033,7 @@
       <c r="O50" s="29"/>
       <c r="P50" s="29"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>377</v>
       </c>
@@ -15974,7 +16055,7 @@
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>377</v>
       </c>
@@ -15996,7 +16077,7 @@
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>377</v>
       </c>
@@ -16016,7 +16097,7 @@
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>378</v>
       </c>
@@ -16038,7 +16119,7 @@
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>379</v>
       </c>
@@ -16059,7 +16140,7 @@
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>379</v>
       </c>
@@ -16081,7 +16162,7 @@
       <c r="O56" s="29"/>
       <c r="P56" s="29"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
@@ -16099,7 +16180,7 @@
       <c r="O57" s="48"/>
       <c r="P57" s="48"/>
     </row>
-    <row r="58" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
         <v>5</v>
       </c>
@@ -16119,7 +16200,7 @@
       <c r="O58" s="44"/>
       <c r="P58" s="45"/>
     </row>
-    <row r="59" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
         <v>34</v>
       </c>
@@ -16139,7 +16220,7 @@
       <c r="O59" s="24"/>
       <c r="P59" s="25"/>
     </row>
-    <row r="60" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
         <v>259</v>
       </c>
@@ -16159,7 +16240,7 @@
       <c r="O60" s="24"/>
       <c r="P60" s="25"/>
     </row>
-    <row r="61" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="s">
         <v>35</v>
       </c>
@@ -16179,7 +16260,7 @@
       <c r="O61" s="24"/>
       <c r="P61" s="25"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="58" t="s">
         <v>6</v>
       </c>
@@ -16201,7 +16282,7 @@
       <c r="O62" s="58"/>
       <c r="P62" s="58"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
         <v>55</v>
       </c>
@@ -16209,7 +16290,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
         <v>59</v>
       </c>
@@ -16217,7 +16298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
         <v>62</v>
       </c>
@@ -16225,7 +16306,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
         <v>65</v>
       </c>
@@ -16233,7 +16314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
         <v>68</v>
       </c>
@@ -16241,7 +16322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
         <v>71</v>
       </c>
@@ -16249,7 +16330,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
         <v>75</v>
       </c>
@@ -16257,7 +16338,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
         <v>79</v>
       </c>
@@ -16286,35 +16367,35 @@
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="21" customWidth="1"/>
     <col min="6" max="6" width="28" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="60.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="60.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="25" style="21" customWidth="1"/>
-    <col min="19" max="16384" width="83.7109375" style="21"/>
+    <col min="19" max="16384" width="83.6640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="87"/>
     </row>
-    <row r="3" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
@@ -16334,7 +16415,7 @@
       <c r="O3" s="66"/>
       <c r="P3" s="66"/>
     </row>
-    <row r="4" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
@@ -16354,7 +16435,7 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>31</v>
       </c>
@@ -16373,7 +16454,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>361</v>
       </c>
@@ -16381,7 +16462,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>362</v>
       </c>
@@ -16389,7 +16470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>363</v>
       </c>
@@ -16397,7 +16478,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>240</v>
       </c>
@@ -16405,7 +16486,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>240</v>
       </c>
@@ -16413,7 +16494,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>240</v>
       </c>
@@ -16422,7 +16503,7 @@
       </c>
       <c r="D11" s="48"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>240</v>
       </c>
@@ -16430,7 +16511,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>240</v>
       </c>
@@ -16438,39 +16519,39 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="87"/>
     </row>
-    <row r="16" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
     </row>
-    <row r="17" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="87"/>
     </row>
-    <row r="18" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="87"/>
     </row>
-    <row r="19" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="87"/>
     </row>
-    <row r="20" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="87"/>
     </row>
-    <row r="21" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
@@ -16488,7 +16569,7 @@
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
     </row>
-    <row r="25" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>0</v>
       </c>
@@ -16508,7 +16589,7 @@
       <c r="O25" s="44"/>
       <c r="P25" s="45"/>
     </row>
-    <row r="26" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>30</v>
       </c>
@@ -16528,7 +16609,7 @@
       <c r="O26" s="24"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="27" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>256</v>
       </c>
@@ -16548,7 +16629,7 @@
       <c r="O27" s="24"/>
       <c r="P27" s="25"/>
     </row>
-    <row r="28" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>257</v>
       </c>
@@ -16568,7 +16649,7 @@
       <c r="O28" s="24"/>
       <c r="P28" s="25"/>
     </row>
-    <row r="29" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>258</v>
       </c>
@@ -16588,7 +16669,7 @@
       <c r="O29" s="24"/>
       <c r="P29" s="25"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="79" t="s">
         <v>364</v>
       </c>
@@ -16638,7 +16719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>108</v>
       </c>
@@ -16679,7 +16760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>118</v>
       </c>
@@ -16720,7 +16801,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>124</v>
       </c>
@@ -16761,7 +16842,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>130</v>
       </c>
@@ -16802,7 +16883,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>136</v>
       </c>
@@ -16840,10 +16921,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="74"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -16861,7 +16942,7 @@
       <c r="O37" s="42"/>
       <c r="P37" s="42"/>
     </row>
-    <row r="38" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>29</v>
       </c>
@@ -16881,7 +16962,7 @@
       <c r="O38" s="44"/>
       <c r="P38" s="45"/>
     </row>
-    <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>32</v>
       </c>
@@ -16901,7 +16982,7 @@
       <c r="O39" s="24"/>
       <c r="P39" s="25"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>253</v>
       </c>
@@ -16923,7 +17004,7 @@
       <c r="O40" s="29"/>
       <c r="P40" s="29"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>254</v>
       </c>
@@ -16943,7 +17024,7 @@
       <c r="O41" s="29"/>
       <c r="P41" s="29"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>375</v>
       </c>
@@ -16965,7 +17046,7 @@
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>376</v>
       </c>
@@ -16987,7 +17068,7 @@
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>381</v>
       </c>
@@ -17009,7 +17090,7 @@
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="47"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
@@ -17027,7 +17108,7 @@
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>377</v>
       </c>
@@ -17049,7 +17130,7 @@
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>377</v>
       </c>
@@ -17071,7 +17152,7 @@
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>377</v>
       </c>
@@ -17093,7 +17174,7 @@
       <c r="O48" s="29"/>
       <c r="P48" s="29"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>377</v>
       </c>
@@ -17115,7 +17196,7 @@
       <c r="O49" s="29"/>
       <c r="P49" s="29"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>377</v>
       </c>
@@ -17137,7 +17218,7 @@
       <c r="O50" s="29"/>
       <c r="P50" s="29"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>377</v>
       </c>
@@ -17159,7 +17240,7 @@
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>378</v>
       </c>
@@ -17181,7 +17262,7 @@
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>379</v>
       </c>
@@ -17203,7 +17284,7 @@
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="48"/>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -17221,7 +17302,7 @@
       <c r="O54" s="48"/>
       <c r="P54" s="48"/>
     </row>
-    <row r="55" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
         <v>5</v>
       </c>
@@ -17241,7 +17322,7 @@
       <c r="O55" s="44"/>
       <c r="P55" s="45"/>
     </row>
-    <row r="56" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>34</v>
       </c>
@@ -17261,7 +17342,7 @@
       <c r="O56" s="24"/>
       <c r="P56" s="25"/>
     </row>
-    <row r="57" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
         <v>259</v>
       </c>
@@ -17281,7 +17362,7 @@
       <c r="O57" s="24"/>
       <c r="P57" s="25"/>
     </row>
-    <row r="58" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>35</v>
       </c>
@@ -17301,7 +17382,7 @@
       <c r="O58" s="24"/>
       <c r="P58" s="25"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="58" t="s">
         <v>6</v>
       </c>
@@ -17344,40 +17425,40 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="43.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="43.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" style="21"/>
-    <col min="2" max="2" width="65.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="20.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="45.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="45.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="45.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="44.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="45.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="43.5703125" style="21"/>
+    <col min="1" max="1" width="43.5546875" style="21"/>
+    <col min="2" max="2" width="65.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="20.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="45.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="45.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="45.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="44.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="45.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="43.5546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96"/>
     </row>
-    <row r="3" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
@@ -17396,7 +17477,7 @@
       <c r="N3" s="66"/>
       <c r="O3" s="66"/>
     </row>
-    <row r="4" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
@@ -17415,7 +17496,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>31</v>
       </c>
@@ -17433,7 +17514,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>361</v>
       </c>
@@ -17441,7 +17522,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>362</v>
       </c>
@@ -17449,7 +17530,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>363</v>
       </c>
@@ -17457,7 +17538,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>240</v>
       </c>
@@ -17465,7 +17546,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>240</v>
       </c>
@@ -17473,33 +17554,33 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="68"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="68"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="68"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="68"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="68"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="69"/>
       <c r="B19" s="69"/>
       <c r="C19" s="69"/>
@@ -17516,7 +17597,7 @@
       <c r="N19" s="69"/>
       <c r="O19" s="69"/>
     </row>
-    <row r="20" spans="1:26" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>0</v>
       </c>
@@ -17535,7 +17616,7 @@
       <c r="N20" s="65"/>
       <c r="O20" s="66"/>
     </row>
-    <row r="21" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>30</v>
       </c>
@@ -17554,7 +17635,7 @@
       <c r="N21" s="24"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>256</v>
       </c>
@@ -17573,7 +17654,7 @@
       <c r="N22" s="24"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>257</v>
       </c>
@@ -17593,7 +17674,7 @@
       <c r="O23" s="24"/>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>258</v>
       </c>
@@ -17613,7 +17694,7 @@
       <c r="O24" s="24"/>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="79" t="s">
         <v>364</v>
       </c>
@@ -17693,7 +17774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>38</v>
       </c>
@@ -17773,7 +17854,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>39</v>
       </c>
@@ -17853,7 +17934,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>40</v>
       </c>
@@ -17933,7 +18014,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>41</v>
       </c>
@@ -18013,7 +18094,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="70"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -18030,7 +18111,7 @@
       <c r="N30" s="28"/>
       <c r="O30" s="28"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="71"/>
       <c r="B31" s="71"/>
       <c r="C31" s="71"/>
@@ -18047,7 +18128,7 @@
       <c r="N31" s="71"/>
       <c r="O31" s="71"/>
     </row>
-    <row r="32" spans="1:26" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>29</v>
       </c>
@@ -18066,7 +18147,7 @@
       <c r="N32" s="65"/>
       <c r="O32" s="66"/>
     </row>
-    <row r="33" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>32</v>
       </c>
@@ -18085,7 +18166,7 @@
       <c r="N33" s="24"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>253</v>
       </c>
@@ -18103,7 +18184,7 @@
       <c r="N34" s="30"/>
       <c r="O34" s="30"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>254</v>
       </c>
@@ -18121,7 +18202,7 @@
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>254</v>
       </c>
@@ -18139,7 +18220,7 @@
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>375</v>
       </c>
@@ -18160,7 +18241,7 @@
       <c r="N37" s="30"/>
       <c r="O37" s="30"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>376</v>
       </c>
@@ -18181,7 +18262,7 @@
       <c r="N38" s="30"/>
       <c r="O38" s="30"/>
     </row>
-    <row r="39" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>381</v>
       </c>
@@ -18202,7 +18283,7 @@
       <c r="N39" s="30"/>
       <c r="O39" s="30"/>
     </row>
-    <row r="40" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
       <c r="B40" s="29"/>
       <c r="C40" s="30"/>
@@ -18219,7 +18300,7 @@
       <c r="N40" s="30"/>
       <c r="O40" s="30"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>377</v>
       </c>
@@ -18240,7 +18321,7 @@
       <c r="N41" s="30"/>
       <c r="O41" s="30"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>377</v>
       </c>
@@ -18258,7 +18339,7 @@
       <c r="N42" s="30"/>
       <c r="O42" s="30"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>377</v>
       </c>
@@ -18276,7 +18357,7 @@
       <c r="N43" s="30"/>
       <c r="O43" s="30"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>377</v>
       </c>
@@ -18294,7 +18375,7 @@
       <c r="N44" s="30"/>
       <c r="O44" s="30"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>377</v>
       </c>
@@ -18312,7 +18393,7 @@
       <c r="N45" s="30"/>
       <c r="O45" s="30"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>378</v>
       </c>
@@ -18333,7 +18414,7 @@
       <c r="N46" s="28"/>
       <c r="O46" s="28"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>379</v>
       </c>
@@ -18354,7 +18435,7 @@
       <c r="N47" s="30"/>
       <c r="O47" s="30"/>
     </row>
-    <row r="48" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="68"/>
       <c r="B48" s="72"/>
       <c r="C48" s="28"/>
@@ -18371,7 +18452,7 @@
       <c r="N48" s="28"/>
       <c r="O48" s="28"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="73"/>
       <c r="B49" s="73"/>
       <c r="C49" s="73"/>
@@ -18388,7 +18469,7 @@
       <c r="N49" s="73"/>
       <c r="O49" s="73"/>
     </row>
-    <row r="50" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>5</v>
       </c>
@@ -18407,7 +18488,7 @@
       <c r="N50" s="65"/>
       <c r="O50" s="66"/>
     </row>
-    <row r="51" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>34</v>
       </c>
@@ -18426,7 +18507,7 @@
       <c r="N51" s="24"/>
       <c r="O51" s="25"/>
     </row>
-    <row r="52" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>259</v>
       </c>
@@ -18445,7 +18526,7 @@
       <c r="N52" s="24"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>35</v>
       </c>
@@ -18464,7 +18545,7 @@
       <c r="N53" s="24"/>
       <c r="O53" s="25"/>
     </row>
-    <row r="54" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="58" t="s">
         <v>6</v>
       </c>
@@ -18487,7 +18568,7 @@
       <c r="N54" s="58"/>
       <c r="O54" s="58"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>165</v>
       </c>
@@ -18498,7 +18579,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>168</v>
       </c>
@@ -18509,7 +18590,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>171</v>
       </c>
@@ -18520,7 +18601,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
         <v>174</v>
       </c>
@@ -18531,7 +18612,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="29" t="s">
         <v>181</v>
       </c>
@@ -18542,7 +18623,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
         <v>184</v>
       </c>
@@ -18553,7 +18634,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="29" t="s">
         <v>187</v>
       </c>
@@ -18564,7 +18645,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
         <v>190</v>
       </c>
@@ -18575,7 +18656,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
         <v>196</v>
       </c>
@@ -18586,7 +18667,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
         <v>199</v>
       </c>
@@ -18597,7 +18678,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="29" t="s">
         <v>202</v>
       </c>
@@ -18608,7 +18689,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
         <v>205</v>
       </c>
@@ -18619,7 +18700,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
         <v>211</v>
       </c>
@@ -18630,7 +18711,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="29" t="s">
         <v>214</v>
       </c>
@@ -18641,7 +18722,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="29" t="s">
         <v>217</v>
       </c>
@@ -18652,7 +18733,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="29" t="s">
         <v>220</v>
       </c>
@@ -18687,40 +18768,40 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.140625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="65.109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="21" customWidth="1"/>
     <col min="3" max="3" width="25" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="21" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="194.85546875" style="21" customWidth="1"/>
-    <col min="9" max="9" width="140.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="194.88671875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="140.109375" style="21" customWidth="1"/>
     <col min="10" max="10" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="99.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" style="21" customWidth="1"/>
-    <col min="19" max="19" width="35.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="31" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="35.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="35.88671875" style="21" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="31" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.85546875" style="21"/>
+    <col min="25" max="16384" width="9.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>23</v>
       </c>
@@ -18745,7 +18826,7 @@
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
-    <row r="4" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
@@ -18770,7 +18851,7 @@
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
     </row>
-    <row r="5" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>31</v>
       </c>
@@ -18794,7 +18875,7 @@
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
     </row>
-    <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>361</v>
       </c>
@@ -18802,7 +18883,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>362</v>
       </c>
@@ -18810,7 +18891,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>363</v>
       </c>
@@ -18818,7 +18899,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>240</v>
       </c>
@@ -18826,7 +18907,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>240</v>
       </c>
@@ -18835,7 +18916,7 @@
       </c>
       <c r="D10" s="48"/>
     </row>
-    <row r="11" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>240</v>
       </c>
@@ -18844,20 +18925,20 @@
       </c>
       <c r="D11" s="48"/>
     </row>
-    <row r="12" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
     </row>
-    <row r="15" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>548</v>
       </c>
@@ -18871,7 +18952,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>536</v>
       </c>
@@ -18882,7 +18963,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="21" t="s">
         <v>394</v>
@@ -18891,7 +18972,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="21" t="s">
         <v>396</v>
@@ -18900,7 +18981,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="21" t="s">
         <v>398</v>
@@ -18909,7 +18990,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
       <c r="B20" s="21" t="s">
         <v>400</v>
@@ -18918,7 +18999,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
       <c r="B21" s="21" t="s">
         <v>402</v>
@@ -18927,7 +19008,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47"/>
       <c r="B22" s="21" t="s">
         <v>404</v>
@@ -18939,7 +19020,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47"/>
       <c r="B23" s="21" t="s">
         <v>407</v>
@@ -18951,7 +19032,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
       <c r="B24" s="21" t="s">
         <v>410</v>
@@ -18963,7 +19044,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47"/>
       <c r="B25" s="21" t="s">
         <v>413</v>
@@ -18975,19 +19056,19 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="51"/>
     </row>
-    <row r="34" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="51"/>
     </row>
-    <row r="35" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51"/>
     </row>
-    <row r="36" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="51"/>
     </row>
-    <row r="37" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="52"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -19009,7 +19090,7 @@
       <c r="T37" s="52"/>
       <c r="U37" s="52"/>
     </row>
-    <row r="38" spans="1:26" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>0</v>
       </c>
@@ -19034,7 +19115,7 @@
       <c r="T38" s="45"/>
       <c r="U38" s="45"/>
     </row>
-    <row r="39" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>30</v>
       </c>
@@ -19059,7 +19140,7 @@
       <c r="T39" s="25"/>
       <c r="U39" s="25"/>
     </row>
-    <row r="40" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>256</v>
       </c>
@@ -19084,7 +19165,7 @@
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
     </row>
-    <row r="41" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>257</v>
       </c>
@@ -19109,7 +19190,7 @@
       <c r="T41" s="25"/>
       <c r="U41" s="25"/>
     </row>
-    <row r="42" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>258</v>
       </c>
@@ -19134,7 +19215,7 @@
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
     </row>
-    <row r="43" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="79" t="s">
         <v>364</v>
       </c>
@@ -19214,7 +19295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>416</v>
       </c>
@@ -19282,7 +19363,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>431</v>
       </c>
@@ -19345,7 +19426,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>441</v>
       </c>
@@ -19408,7 +19489,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -19428,7 +19509,7 @@
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
     </row>
-    <row r="48" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -19447,7 +19528,7 @@
       <c r="Q48" s="29"/>
       <c r="R48" s="29"/>
     </row>
-    <row r="49" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -19466,7 +19547,7 @@
       <c r="Q49" s="29"/>
       <c r="R49" s="29"/>
     </row>
-    <row r="50" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -19486,7 +19567,7 @@
       <c r="Q50" s="29"/>
       <c r="R50" s="29"/>
     </row>
-    <row r="51" spans="1:21" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
         <v>29</v>
       </c>
@@ -19511,7 +19592,7 @@
       <c r="T51" s="45"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>32</v>
       </c>
@@ -19536,7 +19617,7 @@
       <c r="T52" s="25"/>
       <c r="U52" s="25"/>
     </row>
-    <row r="53" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>253</v>
       </c>
@@ -19561,7 +19642,7 @@
       <c r="T53" s="29"/>
       <c r="U53" s="29"/>
     </row>
-    <row r="54" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>254</v>
       </c>
@@ -19586,7 +19667,7 @@
       <c r="T54" s="29"/>
       <c r="U54" s="29"/>
     </row>
-    <row r="55" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>375</v>
       </c>
@@ -19613,7 +19694,7 @@
       <c r="T55" s="29"/>
       <c r="U55" s="29"/>
     </row>
-    <row r="56" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>376</v>
       </c>
@@ -19640,7 +19721,7 @@
       <c r="T56" s="29"/>
       <c r="U56" s="29"/>
     </row>
-    <row r="57" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>381</v>
       </c>
@@ -19667,7 +19748,7 @@
       <c r="T57" s="29"/>
       <c r="U57" s="29"/>
     </row>
-    <row r="58" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -19689,7 +19770,7 @@
       <c r="T58" s="29"/>
       <c r="U58" s="29"/>
     </row>
-    <row r="59" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>377</v>
       </c>
@@ -19716,7 +19797,7 @@
       <c r="T59" s="29"/>
       <c r="U59" s="29"/>
     </row>
-    <row r="60" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>377</v>
       </c>
@@ -19743,7 +19824,7 @@
       <c r="T60" s="29"/>
       <c r="U60" s="29"/>
     </row>
-    <row r="61" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>377</v>
       </c>
@@ -19768,7 +19849,7 @@
       <c r="T61" s="29"/>
       <c r="U61" s="29"/>
     </row>
-    <row r="62" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>377</v>
       </c>
@@ -19793,7 +19874,7 @@
       <c r="T62" s="29"/>
       <c r="U62" s="29"/>
     </row>
-    <row r="63" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
         <v>377</v>
       </c>
@@ -19818,7 +19899,7 @@
       <c r="T63" s="29"/>
       <c r="U63" s="29"/>
     </row>
-    <row r="64" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>378</v>
       </c>
@@ -19845,7 +19926,7 @@
       <c r="T64" s="29"/>
       <c r="U64" s="29"/>
     </row>
-    <row r="65" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
         <v>379</v>
       </c>
@@ -19872,7 +19953,7 @@
       <c r="T65" s="29"/>
       <c r="U65" s="29"/>
     </row>
-    <row r="66" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="47" t="s">
         <v>379</v>
       </c>
@@ -19898,7 +19979,7 @@
       <c r="T66" s="29"/>
       <c r="U66" s="29"/>
     </row>
-    <row r="67" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
         <v>379</v>
       </c>
@@ -19925,7 +20006,7 @@
       <c r="T67" s="48"/>
       <c r="U67" s="48"/>
     </row>
-    <row r="68" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="51"/>
       <c r="C68" s="48"/>
       <c r="D68" s="48"/>
@@ -19947,7 +20028,7 @@
       <c r="T68" s="48"/>
       <c r="U68" s="48"/>
     </row>
-    <row r="69" spans="1:25" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="43" t="s">
         <v>5</v>
       </c>
@@ -19973,7 +20054,7 @@
       <c r="U69" s="45"/>
       <c r="Y69" s="21"/>
     </row>
-    <row r="70" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
         <v>34</v>
       </c>
@@ -19998,7 +20079,7 @@
       <c r="T70" s="25"/>
       <c r="U70" s="25"/>
     </row>
-    <row r="71" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
         <v>259</v>
       </c>
@@ -20023,7 +20104,7 @@
       <c r="T71" s="25"/>
       <c r="U71" s="25"/>
     </row>
-    <row r="72" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
         <v>35</v>
       </c>
@@ -20048,7 +20129,7 @@
       <c r="T72" s="25"/>
       <c r="U72" s="25"/>
     </row>
-    <row r="73" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="58" t="s">
         <v>6</v>
       </c>
@@ -20077,7 +20158,7 @@
       <c r="T73" s="58"/>
       <c r="U73" s="58"/>
     </row>
-    <row r="74" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
         <v>425</v>
       </c>
@@ -20088,7 +20169,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
         <v>428</v>
       </c>
@@ -20099,7 +20180,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
         <v>437</v>
       </c>
@@ -20107,7 +20188,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
         <v>439</v>
       </c>
@@ -20115,7 +20196,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
         <v>447</v>
       </c>
@@ -20123,7 +20204,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
         <v>449</v>
       </c>
@@ -20151,41 +20232,41 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="60.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="59.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="60.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="59.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="89.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="88.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="83.7109375" style="21"/>
+    <col min="20" max="21" width="60.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="59.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="60.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="59.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="89.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="88.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="83.6640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>23</v>
       </c>
@@ -20212,7 +20293,7 @@
       <c r="V3" s="45"/>
       <c r="W3" s="45"/>
     </row>
-    <row r="4" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
@@ -20239,7 +20320,7 @@
       <c r="V4" s="25"/>
       <c r="W4" s="25"/>
     </row>
-    <row r="5" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>31</v>
       </c>
@@ -20265,7 +20346,7 @@
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
     </row>
-    <row r="6" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>361</v>
       </c>
@@ -20273,7 +20354,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>362</v>
       </c>
@@ -20281,7 +20362,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>363</v>
       </c>
@@ -20289,7 +20370,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>240</v>
       </c>
@@ -20297,7 +20378,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>240</v>
       </c>
@@ -20306,7 +20387,7 @@
       </c>
       <c r="D10" s="48"/>
     </row>
-    <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>240</v>
       </c>
@@ -20315,28 +20396,28 @@
       </c>
       <c r="D11" s="48"/>
     </row>
-    <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>252</v>
       </c>
       <c r="D12" s="48"/>
     </row>
-    <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51"/>
     </row>
-    <row r="15" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
     </row>
-    <row r="16" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51"/>
     </row>
-    <row r="17" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
     </row>
-    <row r="18" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
     </row>
-    <row r="19" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="52"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
@@ -20361,7 +20442,7 @@
       <c r="V19" s="52"/>
       <c r="W19" s="52"/>
     </row>
-    <row r="20" spans="1:25" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>0</v>
       </c>
@@ -20388,7 +20469,7 @@
       <c r="V20" s="44"/>
       <c r="W20" s="45"/>
     </row>
-    <row r="21" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>30</v>
       </c>
@@ -20415,7 +20496,7 @@
       <c r="V21" s="24"/>
       <c r="W21" s="25"/>
     </row>
-    <row r="22" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>256</v>
       </c>
@@ -20442,7 +20523,7 @@
       <c r="V22" s="24"/>
       <c r="W22" s="25"/>
     </row>
-    <row r="23" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>257</v>
       </c>
@@ -20469,7 +20550,7 @@
       <c r="V23" s="24"/>
       <c r="W23" s="25"/>
     </row>
-    <row r="24" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>258</v>
       </c>
@@ -20496,7 +20577,7 @@
       <c r="V24" s="24"/>
       <c r="W24" s="25"/>
     </row>
-    <row r="25" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="79" t="s">
         <v>364</v>
       </c>
@@ -20573,7 +20654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="59" t="s">
         <v>473</v>
       </c>
@@ -20650,7 +20731,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="59" t="s">
         <v>486</v>
       </c>
@@ -20727,7 +20808,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="59" t="s">
         <v>497</v>
       </c>
@@ -20804,7 +20885,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="59" t="s">
         <v>508</v>
       </c>
@@ -20881,7 +20962,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="59"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -20906,7 +20987,7 @@
       <c r="V30" s="29"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -20931,7 +21012,7 @@
       <c r="V31" s="42"/>
       <c r="W31" s="42"/>
     </row>
-    <row r="32" spans="1:25" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>29</v>
       </c>
@@ -20958,7 +21039,7 @@
       <c r="V32" s="44"/>
       <c r="W32" s="45"/>
     </row>
-    <row r="33" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>32</v>
       </c>
@@ -20985,7 +21066,7 @@
       <c r="V33" s="24"/>
       <c r="W33" s="25"/>
     </row>
-    <row r="34" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>253</v>
       </c>
@@ -21014,7 +21095,7 @@
       <c r="V34" s="29"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>254</v>
       </c>
@@ -21043,7 +21124,7 @@
       <c r="V35" s="29"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>375</v>
       </c>
@@ -21072,7 +21153,7 @@
       <c r="V36" s="29"/>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>376</v>
       </c>
@@ -21101,7 +21182,7 @@
       <c r="V37" s="29"/>
       <c r="W37" s="29"/>
     </row>
-    <row r="38" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>381</v>
       </c>
@@ -21129,7 +21210,7 @@
       <c r="U38" s="29"/>
       <c r="V38" s="29"/>
     </row>
-    <row r="39" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -21153,7 +21234,7 @@
       <c r="U39" s="29"/>
       <c r="V39" s="29"/>
     </row>
-    <row r="40" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>377</v>
       </c>
@@ -21181,7 +21262,7 @@
       <c r="U40" s="29"/>
       <c r="V40" s="29"/>
     </row>
-    <row r="41" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>377</v>
       </c>
@@ -21209,7 +21290,7 @@
       <c r="U41" s="29"/>
       <c r="V41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>377</v>
       </c>
@@ -21237,7 +21318,7 @@
       <c r="U42" s="29"/>
       <c r="V42" s="29"/>
     </row>
-    <row r="43" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>377</v>
       </c>
@@ -21263,7 +21344,7 @@
       <c r="U43" s="29"/>
       <c r="V43" s="29"/>
     </row>
-    <row r="44" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>377</v>
       </c>
@@ -21289,7 +21370,7 @@
       <c r="U44" s="29"/>
       <c r="V44" s="29"/>
     </row>
-    <row r="45" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>378</v>
       </c>
@@ -21317,7 +21398,7 @@
       <c r="U45" s="29"/>
       <c r="V45" s="29"/>
     </row>
-    <row r="46" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
         <v>379</v>
       </c>
@@ -21346,7 +21427,7 @@
       <c r="V46" s="29"/>
       <c r="W46" s="29"/>
     </row>
-    <row r="47" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>379</v>
       </c>
@@ -21375,7 +21456,7 @@
       <c r="V47" s="29"/>
       <c r="W47" s="29"/>
     </row>
-    <row r="48" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>379</v>
       </c>
@@ -21404,7 +21485,7 @@
       <c r="V48" s="29"/>
       <c r="W48" s="29"/>
     </row>
-    <row r="49" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>379</v>
       </c>
@@ -21433,7 +21514,7 @@
       <c r="V49" s="29"/>
       <c r="W49" s="29"/>
     </row>
-    <row r="50" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>379</v>
       </c>
@@ -21462,7 +21543,7 @@
       <c r="V50" s="29"/>
       <c r="W50" s="29"/>
     </row>
-    <row r="51" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>379</v>
       </c>
@@ -21491,7 +21572,7 @@
       <c r="V51" s="29"/>
       <c r="W51" s="29"/>
     </row>
-    <row r="52" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>379</v>
       </c>
@@ -21520,7 +21601,7 @@
       <c r="V52" s="29"/>
       <c r="W52" s="29"/>
     </row>
-    <row r="53" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>379</v>
       </c>
@@ -21549,7 +21630,7 @@
       <c r="V53" s="29"/>
       <c r="W53" s="29"/>
     </row>
-    <row r="54" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>379</v>
       </c>
@@ -21578,7 +21659,7 @@
       <c r="V54" s="29"/>
       <c r="W54" s="29"/>
     </row>
-    <row r="55" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -21603,7 +21684,7 @@
       <c r="V55" s="48"/>
       <c r="W55" s="48"/>
     </row>
-    <row r="56" spans="1:23" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
         <v>5</v>
       </c>
@@ -21630,7 +21711,7 @@
       <c r="V56" s="44"/>
       <c r="W56" s="45"/>
     </row>
-    <row r="57" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
         <v>34</v>
       </c>
@@ -21657,7 +21738,7 @@
       <c r="V57" s="24"/>
       <c r="W57" s="25"/>
     </row>
-    <row r="58" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>259</v>
       </c>
@@ -21684,7 +21765,7 @@
       <c r="V58" s="24"/>
       <c r="W58" s="25"/>
     </row>
-    <row r="59" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
         <v>35</v>
       </c>
@@ -21711,7 +21792,7 @@
       <c r="V59" s="24"/>
       <c r="W59" s="25"/>
     </row>
-    <row r="60" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="58" t="s">
         <v>6</v>
       </c>
@@ -21742,7 +21823,7 @@
       <c r="V60" s="58"/>
       <c r="W60" s="58"/>
     </row>
-    <row r="61" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
         <v>550</v>
       </c>
@@ -21753,7 +21834,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
         <v>553</v>
       </c>
@@ -21764,7 +21845,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
         <v>556</v>
       </c>
@@ -21775,7 +21856,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
         <v>559</v>
       </c>
@@ -21786,7 +21867,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
         <v>562</v>
       </c>
@@ -21797,7 +21878,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
         <v>565</v>
       </c>
@@ -21808,7 +21889,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
         <v>568</v>
       </c>
@@ -21819,7 +21900,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
         <v>571</v>
       </c>
@@ -21860,13 +21941,13 @@
       <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>284</v>
       </c>
@@ -21874,7 +21955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -21882,7 +21963,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>235</v>
       </c>
@@ -21890,7 +21971,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -21898,7 +21979,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>296</v>
       </c>
@@ -21906,7 +21987,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>333</v>
       </c>
@@ -21914,7 +21995,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>298</v>
       </c>
@@ -21922,7 +22003,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -21930,7 +22011,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>285</v>
       </c>
@@ -21938,7 +22019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>286</v>
       </c>
@@ -21946,7 +22027,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>287</v>
       </c>
@@ -21954,7 +22035,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>288</v>
       </c>
@@ -21962,7 +22043,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -21970,7 +22051,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -21978,7 +22059,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -21986,7 +22067,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>291</v>
       </c>
@@ -21994,7 +22075,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>292</v>
       </c>
@@ -22002,7 +22083,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>293</v>
       </c>
@@ -22010,7 +22091,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -22018,7 +22099,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -22026,7 +22107,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>297</v>
       </c>
@@ -22034,7 +22115,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>300</v>
       </c>
@@ -22042,7 +22123,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>301</v>
       </c>
@@ -22050,7 +22131,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>302</v>
       </c>
@@ -22058,172 +22139,172 @@
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>337</v>
       </c>
